--- a/katyhs-clean-data.xlsx
+++ b/katyhs-clean-data.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b08acc5e01730ab4/capstone/district-data/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b08acc5e01730ab4/capstone/district-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="143" documentId="8_{A7914484-F901-4292-939A-B261A245FB2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CBBC2DDF-091E-46BA-B436-73520EA0ABDF}"/>
+  <xr:revisionPtr revIDLastSave="149" documentId="8_{A7914484-F901-4292-939A-B261A245FB2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3E305A6E-B4D4-4DC1-8620-70223D261F42}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="4" activeTab="5" xr2:uid="{6475A91C-A9F4-4821-8F86-6D9784CE29B1}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="2" activeTab="5" xr2:uid="{6475A91C-A9F4-4821-8F86-6D9784CE29B1}"/>
   </bookViews>
   <sheets>
     <sheet name="percentage-of-approaches" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
   </externalReferences>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="25" r:id="rId16"/>
+    <pivotCache cacheId="26" r:id="rId16"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -211,12 +211,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -909,7 +908,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'[1]B19001 Percentages'!$A$22:$A$24</c:f>
+              <c:f>'[5]B19001 Percentages'!$A$22:$A$24</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -926,9 +925,9 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'[1]B19001 Percentages'!$B$22:$B$24</c:f>
+              <c:f>'[5]B19001 Percentages'!$B$22:$B$24</c:f>
               <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>0.14700766762205728</c:v>
@@ -1297,7 +1296,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'[4]B19001 Percentages'!$A$23:$A$25</c:f>
+              <c:f>'[6]B19001 Percentages'!$A$23:$A$25</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1314,9 +1313,9 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'[4]B19001 Percentages'!$B$23:$B$25</c:f>
+              <c:f>'[6]B19001 Percentages'!$B$23:$B$25</c:f>
               <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>5.7755006986492774E-2</c:v>
@@ -4098,7 +4097,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'[2]B19001 Percentages'!$A$22:$A$24</c:f>
+              <c:f>'[1]B19001 Percentages'!$A$22:$A$24</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -4115,9 +4114,9 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'[2]B19001 Percentages'!$B$22:$B$24</c:f>
+              <c:f>'[1]B19001 Percentages'!$B$22:$B$24</c:f>
               <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>0.20349151118843364</c:v>
@@ -4483,7 +4482,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'[5]B19001 Percentages'!$A$23:$A$25</c:f>
+              <c:f>'[2]B19001 Percentages'!$A$23:$A$25</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -4500,9 +4499,9 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'[5]B19001 Percentages'!$B$23:$B$25</c:f>
+              <c:f>'[2]B19001 Percentages'!$B$23:$B$25</c:f>
               <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>0.27249783105923181</c:v>
@@ -4890,7 +4889,7 @@
             <c:numRef>
               <c:f>'[3]B19001 Percentages'!$B$22:$B$24</c:f>
               <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>0.28541291629162918</c:v>
@@ -5259,7 +5258,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'[6]B19001 Percentages'!$A$22:$A$24</c:f>
+              <c:f>'[4]B19001 Percentages'!$A$22:$A$24</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -5276,9 +5275,9 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'[6]B19001 Percentages'!$B$22:$B$24</c:f>
+              <c:f>'[4]B19001 Percentages'!$B$22:$B$24</c:f>
               <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>0.21266696081184064</c:v>
@@ -13003,307 +13002,8 @@
       <sheetName val="B19001 Percentages"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0" refreshError="1"/>
       <sheetData sheetId="1">
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>Less than $10,000</v>
-          </cell>
-          <cell r="B5">
-            <v>2.819627152691017E-2</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>$10,000 to $14,999</v>
-          </cell>
-          <cell r="B6">
-            <v>1.1660664853874229E-2</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>$15,000 to $19,999</v>
-          </cell>
-          <cell r="B7">
-            <v>1.1244212537664441E-2</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8" t="str">
-            <v>$20,000 to $24,999</v>
-          </cell>
-          <cell r="B8">
-            <v>1.148918448837608E-2</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9" t="str">
-            <v>$25,000 to $29,999</v>
-          </cell>
-          <cell r="B9">
-            <v>1.7344014110384359E-2</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10" t="str">
-            <v>$30,000 to $34,999</v>
-          </cell>
-          <cell r="B10">
-            <v>8.3290463241958799E-3</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11" t="str">
-            <v>$35,000 to $39,999</v>
-          </cell>
-          <cell r="B11">
-            <v>1.866686264422724E-2</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12" t="str">
-            <v>$40,000 to $44,999</v>
-          </cell>
-          <cell r="B12">
-            <v>2.241493349011538E-2</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13" t="str">
-            <v>$45,000 to $49,999</v>
-          </cell>
-          <cell r="B13">
-            <v>1.7662477646309498E-2</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14" t="str">
-            <v>$50,000 to $59,999</v>
-          </cell>
-          <cell r="B14">
-            <v>4.1694226011121729E-2</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15" t="str">
-            <v>$60,000 to $74,999</v>
-          </cell>
-          <cell r="B15">
-            <v>4.8626932216261243E-2</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16" t="str">
-            <v>$75,000 to $99,999</v>
-          </cell>
-          <cell r="B16">
-            <v>7.7117170084025383E-2</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17" t="str">
-            <v>$100,000 to $124,999</v>
-          </cell>
-          <cell r="B17">
-            <v>9.0468141397809954E-2</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18" t="str">
-            <v>$125,000 to $149,999</v>
-          </cell>
-          <cell r="B18">
-            <v>0.1151123196394013</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="A19" t="str">
-            <v>$150,000 to $199,999</v>
-          </cell>
-          <cell r="B19">
-            <v>0.18647264888170301</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="A20" t="str">
-            <v>$200,000 or more</v>
-          </cell>
-          <cell r="B20">
-            <v>0.29350089414762009</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="A22" t="str">
-            <v>Less than $49,999</v>
-          </cell>
-          <cell r="B22">
-            <v>0.14700766762205728</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="A23" t="str">
-            <v>Between $50,000-$99,999</v>
-          </cell>
-          <cell r="B23">
-            <v>0.16743832831140837</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="A24" t="str">
-            <v>$100,000 or more</v>
-          </cell>
-          <cell r="B24">
-            <v>0.68555400406653444</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="B19001 Values"/>
-      <sheetName val="B19001 Percentages"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>Less than $10,000</v>
-          </cell>
-          <cell r="B5">
-            <v>1.6737656728058069E-2</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>$10,000 to $14,999</v>
-          </cell>
-          <cell r="B6">
-            <v>9.4186813846061559E-3</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>$15,000 to $19,999</v>
-          </cell>
-          <cell r="B7">
-            <v>2.0817085608014881E-2</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8" t="str">
-            <v>$20,000 to $24,999</v>
-          </cell>
-          <cell r="B8">
-            <v>2.501649769032336E-2</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9" t="str">
-            <v>$25,000 to $29,999</v>
-          </cell>
-          <cell r="B9">
-            <v>2.7116203731477589E-2</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10" t="str">
-            <v>$30,000 to $34,999</v>
-          </cell>
-          <cell r="B10">
-            <v>4.9973003779470872E-2</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11" t="str">
-            <v>$35,000 to $39,999</v>
-          </cell>
-          <cell r="B11">
-            <v>2.4776531285620011E-2</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12" t="str">
-            <v>$40,000 to $44,999</v>
-          </cell>
-          <cell r="B12">
-            <v>1.0258563801067849E-2</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13" t="str">
-            <v>$45,000 to $49,999</v>
-          </cell>
-          <cell r="B13">
-            <v>1.9377287179794828E-2</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14" t="str">
-            <v>$50,000 to $59,999</v>
-          </cell>
-          <cell r="B14">
-            <v>4.7393364928909949E-2</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15" t="str">
-            <v>$60,000 to $74,999</v>
-          </cell>
-          <cell r="B15">
-            <v>7.3969644249805025E-2</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16" t="str">
-            <v>$75,000 to $99,999</v>
-          </cell>
-          <cell r="B16">
-            <v>0.126102345671606</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17" t="str">
-            <v>$100,000 to $124,999</v>
-          </cell>
-          <cell r="B17">
-            <v>0.1239426480292759</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18" t="str">
-            <v>$125,000 to $149,999</v>
-          </cell>
-          <cell r="B18">
-            <v>9.6706461095446644E-2</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="A19" t="str">
-            <v>$150,000 to $199,999</v>
-          </cell>
-          <cell r="B19">
-            <v>0.18015477833103369</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="A20" t="str">
-            <v>$200,000 or more</v>
-          </cell>
-          <cell r="B20">
-            <v>0.1482392465054892</v>
-          </cell>
-        </row>
         <row r="22">
           <cell r="A22" t="str">
             <v>Less than $49,999</v>
@@ -13334,6 +13034,49 @@
 </externalLink>
 </file>
 
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="B19001 Values"/>
+      <sheetName val="B19001 Percentages"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1">
+        <row r="23">
+          <cell r="A23" t="str">
+            <v>Less than $49,999</v>
+          </cell>
+          <cell r="B23">
+            <v>0.27249783105923181</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24" t="str">
+            <v>Between $50,000-$99,999</v>
+          </cell>
+          <cell r="B24">
+            <v>0.42358755948155735</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25" t="str">
+            <v>$100,000 or more</v>
+          </cell>
+          <cell r="B25">
+            <v>0.26208691537187478</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
@@ -13345,136 +13088,8 @@
       <sheetName val="B19001 Percentages"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0" refreshError="1"/>
       <sheetData sheetId="1">
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>Less than $10,000</v>
-          </cell>
-          <cell r="B5">
-            <v>4.0025877587758767E-2</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>$10,000 to $14,999</v>
-          </cell>
-          <cell r="B6">
-            <v>1.4710846084608461E-2</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>$15,000 to $19,999</v>
-          </cell>
-          <cell r="B7">
-            <v>1.7551755175517551E-2</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8" t="str">
-            <v>$20,000 to $24,999</v>
-          </cell>
-          <cell r="B8">
-            <v>4.2838658865886593E-2</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9" t="str">
-            <v>$25,000 to $29,999</v>
-          </cell>
-          <cell r="B9">
-            <v>2.6440144014401441E-2</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10" t="str">
-            <v>$30,000 to $34,999</v>
-          </cell>
-          <cell r="B10">
-            <v>3.3078307830783082E-2</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11" t="str">
-            <v>$35,000 to $39,999</v>
-          </cell>
-          <cell r="B11">
-            <v>3.8872637263726383E-2</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12" t="str">
-            <v>$40,000 to $44,999</v>
-          </cell>
-          <cell r="B12">
-            <v>2.3796129612961299E-2</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13" t="str">
-            <v>$45,000 to $49,999</v>
-          </cell>
-          <cell r="B13">
-            <v>4.8098559855985601E-2</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14" t="str">
-            <v>$50,000 to $59,999</v>
-          </cell>
-          <cell r="B14">
-            <v>9.2174842484248426E-2</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15" t="str">
-            <v>$60,000 to $74,999</v>
-          </cell>
-          <cell r="B15">
-            <v>0.119543204320432</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16" t="str">
-            <v>$75,000 to $99,999</v>
-          </cell>
-          <cell r="B16">
-            <v>0.14859923492349239</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17" t="str">
-            <v>$100,000 to $124,999</v>
-          </cell>
-          <cell r="B17">
-            <v>0.1228622862286229</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18" t="str">
-            <v>$125,000 to $149,999</v>
-          </cell>
-          <cell r="B18">
-            <v>9.245612061206121E-2</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="A19" t="str">
-            <v>$150,000 to $199,999</v>
-          </cell>
-          <cell r="B19">
-            <v>8.4805355535553559E-2</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="A20" t="str">
-            <v>$200,000 or more</v>
-          </cell>
-          <cell r="B20">
-            <v>5.4146039603960402E-2</v>
-          </cell>
-        </row>
         <row r="22">
           <cell r="A22" t="str">
             <v>Less than $49,999</v>
@@ -13516,136 +13131,94 @@
       <sheetName val="B19001 Percentages"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0" refreshError="1"/>
       <sheetData sheetId="1">
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>Less than $10,000</v>
+        <row r="22">
+          <cell r="A22" t="str">
+            <v>Less than $49,999</v>
           </cell>
-          <cell r="B5">
-            <v>1.11783884489986E-2</v>
+          <cell r="B22">
+            <v>0.21266696081184064</v>
           </cell>
         </row>
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>$10,000 to $14,999</v>
+        <row r="23">
+          <cell r="A23" t="str">
+            <v>Between $50,000-$99,999</v>
           </cell>
-          <cell r="B6">
-            <v>2.328830926874709E-3</v>
+          <cell r="B23">
+            <v>0.27102803738317754</v>
           </cell>
         </row>
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>$15,000 to $19,999</v>
+        <row r="24">
+          <cell r="A24" t="str">
+            <v>$100,000 or more</v>
           </cell>
-          <cell r="B7">
-            <v>8.9659990684676297E-3</v>
+          <cell r="B24">
+            <v>0.51630500180498173</v>
           </cell>
         </row>
-        <row r="8">
-          <cell r="A8" t="str">
-            <v>$20,000 to $24,999</v>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="B19001 Values"/>
+      <sheetName val="B19001 Percentages"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1">
+        <row r="22">
+          <cell r="A22" t="str">
+            <v>Less than $49,999</v>
           </cell>
-          <cell r="B8">
-            <v>3.3768048439683281E-3</v>
+          <cell r="B22">
+            <v>0.14700766762205728</v>
           </cell>
         </row>
-        <row r="9">
-          <cell r="A9" t="str">
-            <v>$25,000 to $29,999</v>
+        <row r="23">
+          <cell r="A23" t="str">
+            <v>Between $50,000-$99,999</v>
           </cell>
-          <cell r="B9">
-            <v>1.5137401024685609E-2</v>
+          <cell r="B23">
+            <v>0.16743832831140837</v>
           </cell>
         </row>
-        <row r="10">
-          <cell r="A10" t="str">
-            <v>$30,000 to $34,999</v>
+        <row r="24">
+          <cell r="A24" t="str">
+            <v>$100,000 or more</v>
           </cell>
-          <cell r="B10">
-            <v>0</v>
+          <cell r="B24">
+            <v>0.68555400406653444</v>
           </cell>
         </row>
-        <row r="11">
-          <cell r="A11" t="str">
-            <v>$35,000 to $39,999</v>
-          </cell>
-          <cell r="B11">
-            <v>3.143921751280857E-3</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12" t="str">
-            <v>$40,000 to $44,999</v>
-          </cell>
-          <cell r="B12">
-            <v>1.7116907312529111E-2</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13" t="str">
-            <v>$45,000 to $49,999</v>
-          </cell>
-          <cell r="B13">
-            <v>2.328830926874709E-3</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14" t="str">
-            <v>$50,000 to $59,999</v>
-          </cell>
-          <cell r="B14">
-            <v>5.3563111318118304E-3</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15" t="str">
-            <v>$60,000 to $74,999</v>
-          </cell>
-          <cell r="B15">
-            <v>3.4233814625058222E-2</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16" t="str">
-            <v>$75,000 to $99,999</v>
-          </cell>
-          <cell r="B16">
-            <v>9.5947834187238012E-2</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17" t="str">
-            <v>$100,000 to $124,999</v>
-          </cell>
-          <cell r="B17">
-            <v>0.1034000931532371</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18" t="str">
-            <v>$125,000 to $149,999</v>
-          </cell>
-          <cell r="B18">
-            <v>9.0358639962738699E-2</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="A19" t="str">
-            <v>$150,000 to $199,999</v>
-          </cell>
-          <cell r="B19">
-            <v>0.22123893805309741</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="A20" t="str">
-            <v>$200,000 or more</v>
-          </cell>
-          <cell r="B20">
-            <v>0.38588728458313931</v>
-          </cell>
-        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="B19001 Values"/>
+      <sheetName val="B19001 Percentages"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1">
         <row r="23">
           <cell r="A23" t="str">
             <v>Less than $49,999</v>
@@ -13668,348 +13241,6 @@
           </cell>
           <cell r="B25">
             <v>0.69748486259897535</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="B19001 Values"/>
-      <sheetName val="B19001 Percentages"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>Less than $10,000</v>
-          </cell>
-          <cell r="B5">
-            <v>4.1827694087336012E-2</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>$10,000 to $14,999</v>
-          </cell>
-          <cell r="B6">
-            <v>2.1295054815048509E-2</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>$15,000 to $19,999</v>
-          </cell>
-          <cell r="B7">
-            <v>1.1383652759155561E-2</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8" t="str">
-            <v>$20,000 to $24,999</v>
-          </cell>
-          <cell r="B8">
-            <v>2.5948418645003551E-2</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9" t="str">
-            <v>$25,000 to $29,999</v>
-          </cell>
-          <cell r="B9">
-            <v>2.7000026290191131E-2</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10" t="str">
-            <v>$30,000 to $34,999</v>
-          </cell>
-          <cell r="B10">
-            <v>2.7578410495044298E-2</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11" t="str">
-            <v>$35,000 to $39,999</v>
-          </cell>
-          <cell r="B11">
-            <v>2.0926992139232849E-2</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12" t="str">
-            <v>$40,000 to $44,999</v>
-          </cell>
-          <cell r="B12">
-            <v>4.4351552435786208E-2</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13" t="str">
-            <v>$45,000 to $49,999</v>
-          </cell>
-          <cell r="B13">
-            <v>3.3257091779057231E-2</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14" t="str">
-            <v>$50,000 to $59,999</v>
-          </cell>
-          <cell r="B14">
-            <v>6.0756631700712473E-2</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15" t="str">
-            <v>$60,000 to $74,999</v>
-          </cell>
-          <cell r="B15">
-            <v>0.111601861345532</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16" t="str">
-            <v>$75,000 to $99,999</v>
-          </cell>
-          <cell r="B16">
-            <v>0.16857270552356909</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17" t="str">
-            <v>$100,000 to $124,999</v>
-          </cell>
-          <cell r="B17">
-            <v>0.1434129926124563</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18" t="str">
-            <v>$125,000 to $149,999</v>
-          </cell>
-          <cell r="B18">
-            <v>0.10602834082603781</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="A19" t="str">
-            <v>$150,000 to $199,999</v>
-          </cell>
-          <cell r="B19">
-            <v>0.11115492809632729</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="A20" t="str">
-            <v>$200,000 or more</v>
-          </cell>
-          <cell r="B20">
-            <v>4.4903646449509678E-2</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="A23" t="str">
-            <v>Less than $49,999</v>
-          </cell>
-          <cell r="B23">
-            <v>0.27249783105923181</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="A24" t="str">
-            <v>Between $50,000-$99,999</v>
-          </cell>
-          <cell r="B24">
-            <v>0.42358755948155735</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="A25" t="str">
-            <v>$100,000 or more</v>
-          </cell>
-          <cell r="B25">
-            <v>0.26208691537187478</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="B19001 Values"/>
-      <sheetName val="B19001 Percentages"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>Less than $10,000</v>
-          </cell>
-          <cell r="B5">
-            <v>1.7608599735269341E-2</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>$10,000 to $14,999</v>
-          </cell>
-          <cell r="B6">
-            <v>1.2755204364044761E-2</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>$15,000 to $19,999</v>
-          </cell>
-          <cell r="B7">
-            <v>2.081745617905419E-2</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8" t="str">
-            <v>$20,000 to $24,999</v>
-          </cell>
-          <cell r="B8">
-            <v>1.552284304680919E-2</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9" t="str">
-            <v>$25,000 to $29,999</v>
-          </cell>
-          <cell r="B9">
-            <v>2.342465203962938E-2</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10" t="str">
-            <v>$30,000 to $34,999</v>
-          </cell>
-          <cell r="B10">
-            <v>3.1486903854638801E-2</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11" t="str">
-            <v>$35,000 to $39,999</v>
-          </cell>
-          <cell r="B11">
-            <v>3.1888010910111911E-2</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12" t="str">
-            <v>$40,000 to $44,999</v>
-          </cell>
-          <cell r="B12">
-            <v>3.024347198267217E-2</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13" t="str">
-            <v>$45,000 to $49,999</v>
-          </cell>
-          <cell r="B13">
-            <v>2.8919818699610921E-2</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14" t="str">
-            <v>$50,000 to $59,999</v>
-          </cell>
-          <cell r="B14">
-            <v>5.7919858810316471E-2</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15" t="str">
-            <v>$60,000 to $74,999</v>
-          </cell>
-          <cell r="B15">
-            <v>8.2868717660743649E-2</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16" t="str">
-            <v>$75,000 to $99,999</v>
-          </cell>
-          <cell r="B16">
-            <v>0.13023946091211741</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17" t="str">
-            <v>$100,000 to $124,999</v>
-          </cell>
-          <cell r="B17">
-            <v>0.1210541093417833</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18" t="str">
-            <v>$125,000 to $149,999</v>
-          </cell>
-          <cell r="B18">
-            <v>0.1078576872167181</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="A19" t="str">
-            <v>$150,000 to $199,999</v>
-          </cell>
-          <cell r="B19">
-            <v>0.10244274196783119</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="A20" t="str">
-            <v>$200,000 or more</v>
-          </cell>
-          <cell r="B20">
-            <v>0.18495046327864911</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="A22" t="str">
-            <v>Less than $49,999</v>
-          </cell>
-          <cell r="B22">
-            <v>0.21266696081184064</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="A23" t="str">
-            <v>Between $50,000-$99,999</v>
-          </cell>
-          <cell r="B23">
-            <v>0.27102803738317754</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="A24" t="str">
-            <v>$100,000 or more</v>
-          </cell>
-          <cell r="B24">
-            <v>0.51630500180498173</v>
           </cell>
         </row>
       </sheetData>
@@ -15861,7 +15092,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E91CDDE8-8A8F-4167-BE9E-6C7DE4E955F8}" name="PivotTable9" cacheId="25" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E91CDDE8-8A8F-4167-BE9E-6C7DE4E955F8}" name="PivotTable9" cacheId="26" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="A3:B13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField dataField="1" showAll="0"/>
@@ -15970,7 +15201,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C8359CED-C9F8-4F97-9540-0BA6B7A575DF}" name="PivotTable10" cacheId="25" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C8359CED-C9F8-4F97-9540-0BA6B7A575DF}" name="PivotTable10" cacheId="26" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="A3:B13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField showAll="0"/>
@@ -16060,7 +15291,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{362ED5A6-6F48-40F5-862D-FD77373E9696}" name="PivotTable11" cacheId="25" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{362ED5A6-6F48-40F5-862D-FD77373E9696}" name="PivotTable11" cacheId="26" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="A3:B13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField showAll="0"/>
@@ -16150,7 +15381,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E9B893A0-2F38-4BAF-934A-B2C056CA6664}" name="PivotTable12" cacheId="25" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E9B893A0-2F38-4BAF-934A-B2C056CA6664}" name="PivotTable12" cacheId="26" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="A3:D13" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField dataField="1" showAll="0"/>
@@ -16271,7 +15502,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4DCCDB4C-EE27-4A6F-B02D-370BD4A22421}" name="PivotTable13" cacheId="25" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4DCCDB4C-EE27-4A6F-B02D-370BD4A22421}" name="PivotTable13" cacheId="26" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="A3:B10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField dataField="1" showAll="0"/>
@@ -16349,7 +15580,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0CCEE076-BFBA-4EEB-9114-2F9A9C2F6BC4}" name="PivotTable14" cacheId="25" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0CCEE076-BFBA-4EEB-9114-2F9A9C2F6BC4}" name="PivotTable14" cacheId="26" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="A3:B10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField showAll="0"/>
@@ -16756,7 +15987,7 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>27</v>
       </c>
       <c r="B3" t="s">
@@ -16764,82 +15995,82 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="6">
         <v>0.93727272727272715</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="6">
         <v>0.96190476190476171</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="6">
         <v>0.90409090909090917</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="6">
         <v>0.8268181818181819</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="6">
         <v>0.81</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="6">
         <v>0.8272727272727276</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="6">
         <v>0.9718181818181818</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="6">
         <v>0.91090909090909089</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="6">
         <v>0.95818181818181813</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13">
         <v>0.90060913705583723</v>
       </c>
     </row>
@@ -16864,7 +16095,7 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>27</v>
       </c>
       <c r="B3" t="s">
@@ -16872,82 +16103,82 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="6">
         <v>0.81590909090909103</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="6">
         <v>0.86857142857142866</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="6">
         <v>0.7400000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="6">
         <v>0.5636363636363636</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="6">
         <v>0.54090909090909089</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="6">
         <v>0.55863636363636371</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="6">
         <v>0.90454545454545465</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="6">
         <v>0.78</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="6">
         <v>0.86045454545454525</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="6">
         <v>0.73629441624365533</v>
       </c>
     </row>
@@ -16972,7 +16203,7 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>27</v>
       </c>
       <c r="B3" t="s">
@@ -16980,82 +16211,82 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="6">
         <v>0.42363636363636364</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="6">
         <v>0.51285714285714279</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="6">
         <v>0.3418181818181818</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="6">
         <v>0.19409090909090906</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="6">
         <v>0.17636363636363633</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="6">
         <v>0.18545454545454546</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="6">
         <v>0.57454545454545469</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="6">
         <v>0.42409090909090918</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="6">
         <v>0.51590909090909087</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="6">
         <v>0.37137055837563426</v>
       </c>
     </row>
@@ -17081,7 +16312,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AECE694-1B4C-4E96-A7DD-5749E30021EB}">
   <dimension ref="A3:D13"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="B2" zoomScale="80" workbookViewId="0">
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
@@ -17094,7 +16325,7 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>27</v>
       </c>
       <c r="B3" t="s">
@@ -17108,142 +16339,142 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="6">
         <v>0.93727272727272715</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="6">
         <v>0.81590909090909103</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="6">
         <v>0.42363636363636364</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="6">
         <v>0.96190476190476171</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="6">
         <v>0.86857142857142866</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="6">
         <v>0.51285714285714279</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="6">
         <v>0.90409090909090917</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="6">
         <v>0.7400000000000001</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="6">
         <v>0.3418181818181818</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="6">
         <v>0.8268181818181819</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="6">
         <v>0.5636363636363636</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="6">
         <v>0.19409090909090906</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="6">
         <v>0.81</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="6">
         <v>0.54090909090909089</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="6">
         <v>0.17636363636363633</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="6">
         <v>0.8272727272727276</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="6">
         <v>0.55863636363636371</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="6">
         <v>0.18545454545454546</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="6">
         <v>0.9718181818181818</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="6">
         <v>0.90454545454545465</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="6">
         <v>0.57454545454545469</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="6">
         <v>0.91090909090909089</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="6">
         <v>0.78</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="6">
         <v>0.42409090909090918</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="6">
         <v>0.95818181818181813</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="6">
         <v>0.86045454545454525</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="6">
         <v>0.51590909090909087</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="6">
         <v>0.90060913705583723</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="6">
         <v>0.73629441624365533</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="6">
         <v>0.37137055837563426</v>
       </c>
     </row>
@@ -17257,8 +16488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB34EA68-01F2-4451-BC1C-84236C757A6C}">
   <dimension ref="A3:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="F68" sqref="F68"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -17268,7 +16499,7 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>27</v>
       </c>
       <c r="B3" t="s">
@@ -17276,58 +16507,58 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="6">
+      <c r="A4" s="5">
         <v>77084</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="6">
         <v>0.8268181818181819</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="6">
+      <c r="A5" s="5">
         <v>77441</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="6">
         <v>0.96190476190476171</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="6">
+      <c r="A6" s="5">
         <v>77449</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="6">
         <v>0.81</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="6">
+      <c r="A7" s="5">
         <v>77450</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="6">
         <v>0.91090909090909089</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="6">
+      <c r="A8" s="5">
         <v>77493</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="6">
         <v>0.8272727272727276</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="6">
+      <c r="A9" s="5">
         <v>77494</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="6">
         <v>0.94284090909090923</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="6">
         <v>0.90060913705583734</v>
       </c>
     </row>
@@ -17352,7 +16583,7 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>27</v>
       </c>
       <c r="B3" t="s">
@@ -17360,58 +16591,58 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="6">
+      <c r="A4" s="5">
         <v>77084</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="6">
         <v>0.19409090909090906</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="6">
+      <c r="A5" s="5">
         <v>77441</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="6">
         <v>0.51285714285714279</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="6">
+      <c r="A6" s="5">
         <v>77449</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="6">
         <v>0.17636363636363633</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="6">
+      <c r="A7" s="5">
         <v>77450</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="6">
         <v>0.42409090909090918</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="6">
+      <c r="A8" s="5">
         <v>77493</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="6">
         <v>0.18545454545454546</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="6">
+      <c r="A9" s="5">
         <v>77494</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="6">
         <v>0.46397727272727257</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="6">
         <v>0.37137055837563437</v>
       </c>
     </row>
